--- a/PnL Binance.xlsx
+++ b/PnL Binance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4B00D8-FE82-4722-A2A2-A7AF4DAEBA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5068FAF4-6BEB-4CA7-A3E4-7ED89C1C7B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6494CABB-A76D-4942-87DD-8B02021419AC}"/>
   </bookViews>
@@ -390,13 +390,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE39D30-68CA-4840-938F-32769C838B82}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -414,1905 +418,1989 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45554</v>
+        <v>45560</v>
       </c>
       <c r="B2">
-        <v>30.09</v>
+        <v>-19.25</v>
       </c>
       <c r="C2">
-        <v>-376.42</v>
+        <v>-321.89</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.15970000000000001</v>
+        <v>-0.13669999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45553</v>
+        <v>45559</v>
       </c>
       <c r="B3">
-        <v>47.27</v>
+        <v>20.9</v>
       </c>
       <c r="C3">
-        <v>-406.51</v>
+        <v>-302.64999999999998</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.17249999999999999</v>
+        <v>-0.1285</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45552</v>
+        <v>45558</v>
       </c>
       <c r="B4">
-        <v>31.29</v>
+        <v>31.1</v>
       </c>
       <c r="C4">
-        <v>-453.78</v>
+        <v>-323.55</v>
       </c>
       <c r="D4" s="2">
-        <v>-0.19259999999999999</v>
+        <v>-0.13739999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="B5">
-        <v>-17.309999999999999</v>
+        <v>-23.78</v>
       </c>
       <c r="C5">
-        <v>-485.07</v>
+        <v>-354.64</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.2059</v>
+        <v>-0.15060000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45550</v>
+        <v>45556</v>
       </c>
       <c r="B6">
-        <v>-36.520000000000003</v>
+        <v>17.09</v>
       </c>
       <c r="C6">
-        <v>-467.76</v>
+        <v>-330.86</v>
       </c>
       <c r="D6" s="2">
-        <v>-0.19850000000000001</v>
+        <v>-0.14050000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45549</v>
+        <v>45555</v>
       </c>
       <c r="B7">
-        <v>-23.45</v>
+        <v>25.21</v>
       </c>
       <c r="C7">
-        <v>-431.24</v>
+        <v>-347.95</v>
       </c>
       <c r="D7" s="2">
-        <v>-0.183</v>
+        <v>-0.14779999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45548</v>
+        <v>45554</v>
       </c>
       <c r="B8">
-        <v>33.72</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="C8">
-        <v>-407.79</v>
+        <v>-373.17</v>
       </c>
       <c r="D8" s="2">
-        <v>-0.1731</v>
+        <v>-0.1585</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45547</v>
+        <v>45553</v>
       </c>
       <c r="B9">
-        <v>32.299999999999997</v>
+        <v>47.27</v>
       </c>
       <c r="C9">
-        <v>-441.52</v>
+        <v>-406.51</v>
       </c>
       <c r="D9" s="2">
-        <v>-0.18740000000000001</v>
+        <v>-0.17249999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45546</v>
+        <v>45552</v>
       </c>
       <c r="B10">
-        <v>-10.92</v>
+        <v>31.29</v>
       </c>
       <c r="C10">
-        <v>-473.81</v>
+        <v>-453.78</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.2011</v>
+        <v>-0.19259999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45545</v>
+        <v>45551</v>
       </c>
       <c r="B11">
-        <v>28.1</v>
+        <v>-17.309999999999999</v>
       </c>
       <c r="C11">
-        <v>-462.89</v>
+        <v>-485.07</v>
       </c>
       <c r="D11" s="2">
-        <v>-0.19639999999999999</v>
+        <v>-0.2059</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45544</v>
+        <v>45550</v>
       </c>
       <c r="B12">
-        <v>63.7</v>
+        <v>-36.520000000000003</v>
       </c>
       <c r="C12">
-        <v>-490.99</v>
+        <v>-467.76</v>
       </c>
       <c r="D12" s="2">
-        <v>-0.2084</v>
+        <v>-0.19850000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45543</v>
+        <v>45549</v>
       </c>
       <c r="B13">
-        <v>20.46</v>
+        <v>-23.45</v>
       </c>
       <c r="C13">
-        <v>-554.70000000000005</v>
+        <v>-431.24</v>
       </c>
       <c r="D13" s="2">
-        <v>-0.2361</v>
+        <v>-0.183</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45542</v>
+        <v>45548</v>
       </c>
       <c r="B14">
-        <v>10.31</v>
+        <v>33.72</v>
       </c>
       <c r="C14">
-        <v>-575.15</v>
+        <v>-407.79</v>
       </c>
       <c r="D14" s="2">
-        <v>-0.24479999999999999</v>
+        <v>-0.1731</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45541</v>
+        <v>45547</v>
       </c>
       <c r="B15">
-        <v>-40.119999999999997</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="C15">
-        <v>-585.47</v>
+        <v>-441.52</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.2492</v>
+        <v>-0.18740000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45540</v>
+        <v>45546</v>
       </c>
       <c r="B16">
-        <v>-48.09</v>
+        <v>-10.92</v>
       </c>
       <c r="C16">
-        <v>-545.34</v>
+        <v>-473.81</v>
       </c>
       <c r="D16" s="2">
-        <v>-0.2321</v>
+        <v>-0.2011</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45539</v>
+        <v>45545</v>
       </c>
       <c r="B17">
-        <v>26.59</v>
+        <v>28.1</v>
       </c>
       <c r="C17">
-        <v>-497.26</v>
+        <v>-462.89</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.21160000000000001</v>
+        <v>-0.19639999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45538</v>
+        <v>45544</v>
       </c>
       <c r="B18">
-        <v>-56.84</v>
+        <v>63.7</v>
       </c>
       <c r="C18">
-        <v>-523.84</v>
+        <v>-490.99</v>
       </c>
       <c r="D18" s="2">
-        <v>-0.223</v>
+        <v>-0.2084</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45537</v>
+        <v>45543</v>
       </c>
       <c r="B19">
-        <v>63.14</v>
+        <v>20.46</v>
       </c>
       <c r="C19">
-        <v>-467</v>
+        <v>-554.70000000000005</v>
       </c>
       <c r="D19" s="2">
-        <v>-0.1988</v>
+        <v>-0.2361</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45536</v>
+        <v>45542</v>
       </c>
       <c r="B20">
-        <v>-50.82</v>
+        <v>10.31</v>
       </c>
       <c r="C20">
-        <v>-530.14</v>
+        <v>-575.15</v>
       </c>
       <c r="D20" s="2">
-        <v>-0.2268</v>
+        <v>-0.24479999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45535</v>
+        <v>45541</v>
       </c>
       <c r="B21">
-        <v>-20.010000000000002</v>
+        <v>-40.119999999999997</v>
       </c>
       <c r="C21">
-        <v>-479.32</v>
+        <v>-585.47</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.20499999999999999</v>
+        <v>-0.2492</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45534</v>
+        <v>45540</v>
       </c>
       <c r="B22">
-        <v>-0.97</v>
+        <v>-48.09</v>
       </c>
       <c r="C22">
-        <v>-459.31</v>
+        <v>-545.34</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.19650000000000001</v>
+        <v>-0.2321</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="B23">
-        <v>6.11</v>
+        <v>26.59</v>
       </c>
       <c r="C23">
-        <v>-458.34</v>
+        <v>-497.26</v>
       </c>
       <c r="D23" s="2">
-        <v>-0.19600000000000001</v>
+        <v>-0.21160000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45532</v>
+        <v>45538</v>
       </c>
       <c r="B24">
-        <v>-10.73</v>
+        <v>-56.84</v>
       </c>
       <c r="C24">
-        <v>-464.45</v>
+        <v>-523.84</v>
       </c>
       <c r="D24" s="2">
-        <v>-0.19869999999999999</v>
+        <v>-0.223</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45531</v>
+        <v>45537</v>
       </c>
       <c r="B25">
-        <v>-86.99</v>
+        <v>63.14</v>
       </c>
       <c r="C25">
-        <v>-453.72</v>
+        <v>-467</v>
       </c>
       <c r="D25" s="2">
-        <v>-0.19409999999999999</v>
+        <v>-0.1988</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45530</v>
+        <v>45536</v>
       </c>
       <c r="B26">
-        <v>-56.81</v>
+        <v>-50.82</v>
       </c>
       <c r="C26">
-        <v>-366.73</v>
+        <v>-530.14</v>
       </c>
       <c r="D26" s="2">
-        <v>-0.15690000000000001</v>
+        <v>-0.2268</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45529</v>
+        <v>45535</v>
       </c>
       <c r="B27">
-        <v>-28.59</v>
+        <v>-20.010000000000002</v>
       </c>
       <c r="C27">
-        <v>-309.92</v>
+        <v>-479.32</v>
       </c>
       <c r="D27" s="2">
-        <v>-0.13250000000000001</v>
+        <v>-0.20499999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45528</v>
+        <v>45534</v>
       </c>
       <c r="B28">
-        <v>17.52</v>
+        <v>-0.97</v>
       </c>
       <c r="C28">
-        <v>-281.33</v>
+        <v>-459.31</v>
       </c>
       <c r="D28" s="2">
-        <v>-0.1203</v>
+        <v>-0.19650000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45527</v>
+        <v>45533</v>
       </c>
       <c r="B29">
-        <v>113.72</v>
+        <v>6.11</v>
       </c>
       <c r="C29">
-        <v>-298.85000000000002</v>
+        <v>-458.34</v>
       </c>
       <c r="D29" s="2">
-        <v>-0.1278</v>
+        <v>-0.19600000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45526</v>
+        <v>45532</v>
       </c>
       <c r="B30">
-        <v>8.9600000000000009</v>
+        <v>-10.73</v>
       </c>
       <c r="C30">
-        <v>-412.57</v>
+        <v>-464.45</v>
       </c>
       <c r="D30" s="2">
-        <v>-0.17649999999999999</v>
+        <v>-0.19869999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45525</v>
+        <v>45531</v>
       </c>
       <c r="B31">
-        <v>41.85</v>
+        <v>-86.99</v>
       </c>
       <c r="C31">
-        <v>-421.53</v>
+        <v>-453.72</v>
       </c>
       <c r="D31" s="2">
-        <v>-0.18029999999999999</v>
+        <v>-0.19409999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="B32">
-        <v>-25.76</v>
+        <v>-56.81</v>
       </c>
       <c r="C32">
-        <v>-463.38</v>
+        <v>-366.73</v>
       </c>
       <c r="D32" s="2">
-        <v>-0.19819999999999999</v>
+        <v>-0.15690000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B33">
-        <v>34</v>
+        <v>-28.59</v>
       </c>
       <c r="C33">
-        <v>-437.63</v>
+        <v>-309.92</v>
       </c>
       <c r="D33" s="2">
-        <v>-0.18720000000000001</v>
+        <v>-0.13250000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45522</v>
+        <v>45528</v>
       </c>
       <c r="B34">
-        <v>-36.14</v>
+        <v>17.52</v>
       </c>
       <c r="C34">
-        <v>-471.63</v>
+        <v>-281.33</v>
       </c>
       <c r="D34" s="2">
-        <v>-0.20169999999999999</v>
+        <v>-0.1203</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45521</v>
+        <v>45527</v>
       </c>
       <c r="B35">
-        <v>49.97</v>
+        <v>113.72</v>
       </c>
       <c r="C35">
-        <v>-435.49</v>
+        <v>-298.85000000000002</v>
       </c>
       <c r="D35" s="2">
-        <v>-0.18629999999999999</v>
+        <v>-0.1278</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45520</v>
+        <v>45526</v>
       </c>
       <c r="B36">
-        <v>0.85</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="C36">
-        <v>-485.47</v>
+        <v>-412.57</v>
       </c>
       <c r="D36" s="2">
-        <v>-0.2077</v>
+        <v>-0.17649999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45519</v>
+        <v>45525</v>
       </c>
       <c r="B37">
-        <v>-42.12</v>
+        <v>41.85</v>
       </c>
       <c r="C37">
-        <v>-486.31</v>
+        <v>-421.53</v>
       </c>
       <c r="D37" s="2">
-        <v>-0.20799999999999999</v>
+        <v>-0.18029999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="B38">
-        <v>-40.83</v>
+        <v>-25.76</v>
       </c>
       <c r="C38">
-        <v>-444.2</v>
+        <v>-463.38</v>
       </c>
       <c r="D38" s="2">
-        <v>-0.19</v>
+        <v>-0.19819999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45517</v>
+        <v>45523</v>
       </c>
       <c r="B39">
-        <v>22.16</v>
+        <v>34</v>
       </c>
       <c r="C39">
-        <v>-403.36</v>
+        <v>-437.63</v>
       </c>
       <c r="D39" s="2">
-        <v>-0.17249999999999999</v>
+        <v>-0.18720000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B40">
-        <v>33.11</v>
+        <v>-36.14</v>
       </c>
       <c r="C40">
-        <v>-425.53</v>
+        <v>-471.63</v>
       </c>
       <c r="D40" s="2">
-        <v>-0.182</v>
+        <v>-0.20169999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45515</v>
+        <v>45521</v>
       </c>
       <c r="B41">
-        <v>-94.65</v>
+        <v>49.97</v>
       </c>
       <c r="C41">
-        <v>-458.64</v>
+        <v>-435.49</v>
       </c>
       <c r="D41" s="2">
-        <v>-0.19620000000000001</v>
+        <v>-0.18629999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45514</v>
+        <v>45520</v>
       </c>
       <c r="B42">
-        <v>11.44</v>
+        <v>0.85</v>
       </c>
       <c r="C42">
-        <v>-363.99</v>
+        <v>-485.47</v>
       </c>
       <c r="D42" s="2">
-        <v>-0.15570000000000001</v>
+        <v>-0.2077</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45513</v>
+        <v>45519</v>
       </c>
       <c r="B43">
-        <v>-48.16</v>
+        <v>-42.12</v>
       </c>
       <c r="C43">
-        <v>-375.43</v>
+        <v>-486.31</v>
       </c>
       <c r="D43" s="2">
-        <v>-0.1638</v>
+        <v>-0.20799999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B44">
-        <v>184.85</v>
+        <v>-40.83</v>
       </c>
       <c r="C44">
-        <v>-327.27</v>
+        <v>-444.2</v>
       </c>
       <c r="D44" s="2">
-        <v>-0.14269999999999999</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B45">
-        <v>-45.22</v>
+        <v>22.16</v>
       </c>
       <c r="C45">
-        <v>-512.12</v>
+        <v>-403.36</v>
       </c>
       <c r="D45" s="2">
-        <v>-0.22339999999999999</v>
+        <v>-0.17249999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B46">
-        <v>80.709999999999994</v>
+        <v>33.11</v>
       </c>
       <c r="C46">
-        <v>-466.9</v>
+        <v>-425.53</v>
       </c>
       <c r="D46" s="2">
-        <v>-0.20369999999999999</v>
+        <v>-0.182</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B47">
-        <v>-121.36</v>
+        <v>-94.65</v>
       </c>
       <c r="C47">
-        <v>-547.61</v>
+        <v>-458.64</v>
       </c>
       <c r="D47" s="2">
-        <v>-0.2389</v>
+        <v>-0.19620000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B48">
-        <v>-81.09</v>
+        <v>11.44</v>
       </c>
       <c r="C48">
-        <v>-426.25</v>
+        <v>-363.99</v>
       </c>
       <c r="D48" s="2">
-        <v>-0.18590000000000001</v>
+        <v>-0.15570000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B49">
-        <v>-74.69</v>
+        <v>-48.16</v>
       </c>
       <c r="C49">
-        <v>-345.16</v>
+        <v>-375.43</v>
       </c>
       <c r="D49" s="2">
-        <v>-0.15049999999999999</v>
+        <v>-0.1638</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B50">
-        <v>-142.41999999999999</v>
+        <v>184.85</v>
       </c>
       <c r="C50">
-        <v>-270.47000000000003</v>
+        <v>-327.27</v>
       </c>
       <c r="D50" s="2">
-        <v>-0.11799999999999999</v>
+        <v>-0.14269999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B51">
-        <v>5.27</v>
+        <v>-45.22</v>
       </c>
       <c r="C51">
-        <v>-128.05000000000001</v>
+        <v>-512.12</v>
       </c>
       <c r="D51" s="2">
-        <v>-5.5800000000000002E-2</v>
+        <v>-0.22339999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B52">
-        <v>-53.67</v>
+        <v>80.709999999999994</v>
       </c>
       <c r="C52">
-        <v>-133.32</v>
+        <v>-466.9</v>
       </c>
       <c r="D52" s="2">
-        <v>-5.8099999999999999E-2</v>
+        <v>-0.20369999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="B53">
-        <v>-16.89</v>
+        <v>-121.36</v>
       </c>
       <c r="C53">
-        <v>-79.66</v>
+        <v>-547.61</v>
       </c>
       <c r="D53" s="2">
-        <v>-3.4700000000000002E-2</v>
+        <v>-0.2389</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B54">
-        <v>-23.09</v>
+        <v>-81.09</v>
       </c>
       <c r="C54">
-        <v>-62.77</v>
+        <v>-426.25</v>
       </c>
       <c r="D54" s="2">
-        <v>-2.7300000000000001E-2</v>
+        <v>-0.18590000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45501</v>
+        <v>45507</v>
       </c>
       <c r="B55">
-        <v>-7.98</v>
+        <v>-74.69</v>
       </c>
       <c r="C55">
-        <v>-39.67</v>
+        <v>-345.16</v>
       </c>
       <c r="D55" s="2">
-        <v>-1.7299999999999999E-2</v>
+        <v>-0.15049999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45500</v>
+        <v>45506</v>
       </c>
       <c r="B56">
-        <v>32.19</v>
+        <v>-142.41999999999999</v>
       </c>
       <c r="C56">
-        <v>-31.69</v>
+        <v>-270.47000000000003</v>
       </c>
       <c r="D56" s="2">
-        <v>-1.38E-2</v>
+        <v>-0.11799999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45499</v>
+        <v>45505</v>
       </c>
       <c r="B57">
-        <v>64.05</v>
+        <v>5.27</v>
       </c>
       <c r="C57">
-        <v>-63.88</v>
+        <v>-128.05000000000001</v>
       </c>
       <c r="D57" s="2">
-        <v>-2.7799999999999998E-2</v>
+        <v>-5.5800000000000002E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45498</v>
+        <v>45504</v>
       </c>
       <c r="B58">
-        <v>-14.81</v>
+        <v>-53.67</v>
       </c>
       <c r="C58">
-        <v>-127.93</v>
+        <v>-133.32</v>
       </c>
       <c r="D58" s="2">
-        <v>-5.5800000000000002E-2</v>
+        <v>-5.8099999999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45497</v>
+        <v>45503</v>
       </c>
       <c r="B59">
-        <v>-22.12</v>
+        <v>-16.89</v>
       </c>
       <c r="C59">
-        <v>-113.12</v>
+        <v>-79.66</v>
       </c>
       <c r="D59" s="2">
-        <v>-4.9299999999999997E-2</v>
+        <v>-3.4700000000000002E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45496</v>
+        <v>45502</v>
       </c>
       <c r="B60">
-        <v>-48.92</v>
+        <v>-23.09</v>
       </c>
       <c r="C60">
-        <v>-91</v>
+        <v>-62.77</v>
       </c>
       <c r="D60" s="2">
-        <v>-3.9699999999999999E-2</v>
+        <v>-2.7300000000000001E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B61">
-        <v>-83.82</v>
+        <v>-7.98</v>
       </c>
       <c r="C61">
-        <v>-42.08</v>
+        <v>-39.67</v>
       </c>
       <c r="D61" s="2">
-        <v>-1.83E-2</v>
+        <v>-1.7299999999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45494</v>
+        <v>45500</v>
       </c>
       <c r="B62">
-        <v>46.73</v>
+        <v>32.19</v>
       </c>
       <c r="C62">
-        <v>41.74</v>
+        <v>-31.69</v>
       </c>
       <c r="D62" s="2">
-        <v>1.8200000000000001E-2</v>
+        <v>-1.38E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45493</v>
+        <v>45499</v>
       </c>
       <c r="B63">
-        <v>23.65</v>
+        <v>64.05</v>
       </c>
       <c r="C63">
-        <v>-4.99</v>
+        <v>-63.88</v>
       </c>
       <c r="D63" s="2">
-        <v>-2.0999999999999999E-3</v>
+        <v>-2.7799999999999998E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45492</v>
+        <v>45498</v>
       </c>
       <c r="B64">
-        <v>60.97</v>
+        <v>-14.81</v>
       </c>
       <c r="C64">
-        <v>-28.64</v>
+        <v>-127.93</v>
       </c>
       <c r="D64" s="2">
-        <v>-1.24E-2</v>
+        <v>-5.5800000000000002E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45491</v>
+        <v>45497</v>
       </c>
       <c r="B65">
-        <v>0.8</v>
+        <v>-22.12</v>
       </c>
       <c r="C65">
-        <v>-89.61</v>
+        <v>-113.12</v>
       </c>
       <c r="D65" s="2">
-        <v>-3.9100000000000003E-2</v>
+        <v>-4.9299999999999997E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45490</v>
+        <v>45496</v>
       </c>
       <c r="B66">
-        <v>-45.75</v>
+        <v>-48.92</v>
       </c>
       <c r="C66">
-        <v>-90.41</v>
+        <v>-91</v>
       </c>
       <c r="D66" s="2">
-        <v>-3.9399999999999998E-2</v>
+        <v>-3.9699999999999999E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45489</v>
+        <v>45495</v>
       </c>
       <c r="B67">
-        <v>-8.0399999999999991</v>
+        <v>-83.82</v>
       </c>
       <c r="C67">
-        <v>-44.65</v>
+        <v>-42.08</v>
       </c>
       <c r="D67" s="2">
-        <v>-1.9400000000000001E-2</v>
+        <v>-1.83E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B68">
-        <v>177.6</v>
+        <v>46.73</v>
       </c>
       <c r="C68">
-        <v>-36.619999999999997</v>
+        <v>41.74</v>
       </c>
       <c r="D68" s="2">
-        <v>-1.5900000000000001E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45487</v>
+        <v>45493</v>
       </c>
       <c r="B69">
-        <v>57.9</v>
+        <v>23.65</v>
       </c>
       <c r="C69">
-        <v>-214.22</v>
+        <v>-4.99</v>
       </c>
       <c r="D69" s="2">
-        <v>-9.3399999999999997E-2</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45486</v>
+        <v>45492</v>
       </c>
       <c r="B70">
-        <v>36.11</v>
+        <v>60.97</v>
       </c>
       <c r="C70">
-        <v>-272.12</v>
+        <v>-28.64</v>
       </c>
       <c r="D70" s="2">
-        <v>-0.1293</v>
+        <v>-1.24E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45485</v>
+        <v>45491</v>
       </c>
       <c r="B71">
-        <v>33.71</v>
+        <v>0.8</v>
       </c>
       <c r="C71">
-        <v>-308.23</v>
+        <v>-89.61</v>
       </c>
       <c r="D71" s="2">
-        <v>-0.1464</v>
+        <v>-3.9100000000000003E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45484</v>
+        <v>45490</v>
       </c>
       <c r="B72">
-        <v>-34</v>
+        <v>-45.75</v>
       </c>
       <c r="C72">
-        <v>-341.94</v>
+        <v>-90.41</v>
       </c>
       <c r="D72" s="2">
-        <v>-0.16250000000000001</v>
+        <v>-3.9399999999999998E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45483</v>
+        <v>45489</v>
       </c>
       <c r="B73">
-        <v>23.81</v>
+        <v>-8.0399999999999991</v>
       </c>
       <c r="C73">
-        <v>-307.94</v>
+        <v>-44.65</v>
       </c>
       <c r="D73" s="2">
-        <v>-0.1484</v>
+        <v>-1.9400000000000001E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45482</v>
+        <v>45488</v>
       </c>
       <c r="B74">
-        <v>33.369999999999997</v>
+        <v>177.6</v>
       </c>
       <c r="C74">
-        <v>-331.76</v>
+        <v>-36.619999999999997</v>
       </c>
       <c r="D74" s="2">
-        <v>-0.15989999999999999</v>
+        <v>-1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B75">
-        <v>31.92</v>
+        <v>57.9</v>
       </c>
       <c r="C75">
-        <v>-365.13</v>
+        <v>-214.22</v>
       </c>
       <c r="D75" s="2">
-        <v>-0.17599999999999999</v>
+        <v>-9.3399999999999997E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45480</v>
+        <v>45486</v>
       </c>
       <c r="B76">
-        <v>-84.89</v>
+        <v>36.11</v>
       </c>
       <c r="C76">
-        <v>-397.05</v>
+        <v>-272.12</v>
       </c>
       <c r="D76" s="2">
-        <v>-0.19139999999999999</v>
+        <v>-0.1293</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45479</v>
+        <v>45485</v>
       </c>
       <c r="B77">
-        <v>96.67</v>
+        <v>33.71</v>
       </c>
       <c r="C77">
-        <v>-312.16000000000003</v>
+        <v>-308.23</v>
       </c>
       <c r="D77" s="2">
-        <v>-0.15049999999999999</v>
+        <v>-0.1464</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B78">
-        <v>-17.73</v>
+        <v>-34</v>
       </c>
       <c r="C78">
-        <v>-408.83</v>
+        <v>-341.94</v>
       </c>
       <c r="D78" s="2">
-        <v>-0.20180000000000001</v>
+        <v>-0.16250000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45477</v>
+        <v>45483</v>
       </c>
       <c r="B79">
-        <v>-113.62</v>
+        <v>23.81</v>
       </c>
       <c r="C79">
-        <v>-391.1</v>
+        <v>-307.94</v>
       </c>
       <c r="D79" s="2">
-        <v>-0.193</v>
+        <v>-0.1484</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B80">
-        <v>-99.99</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="C80">
-        <v>-277.48</v>
+        <v>-331.76</v>
       </c>
       <c r="D80" s="2">
-        <v>-0.13689999999999999</v>
+        <v>-0.15989999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45475</v>
+        <v>45481</v>
       </c>
       <c r="B81">
-        <v>-1.76</v>
+        <v>31.92</v>
       </c>
       <c r="C81">
-        <v>-177.5</v>
+        <v>-365.13</v>
       </c>
       <c r="D81" s="2">
-        <v>-8.7599999999999997E-2</v>
+        <v>-0.17599999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B82">
-        <v>-10.69</v>
+        <v>-84.89</v>
       </c>
       <c r="C82">
-        <v>-175.73</v>
+        <v>-397.05</v>
       </c>
       <c r="D82" s="2">
-        <v>-8.6699999999999999E-2</v>
+        <v>-0.19139999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45473</v>
+        <v>45479</v>
       </c>
       <c r="B83">
-        <v>56.35</v>
+        <v>96.67</v>
       </c>
       <c r="C83">
-        <v>-165.04</v>
+        <v>-312.16000000000003</v>
       </c>
       <c r="D83" s="2">
-        <v>-8.14E-2</v>
+        <v>-0.15049999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45472</v>
+        <v>45478</v>
       </c>
       <c r="B84">
-        <v>-16.73</v>
+        <v>-17.73</v>
       </c>
       <c r="C84">
-        <v>-221.39</v>
+        <v>-408.83</v>
       </c>
       <c r="D84" s="2">
-        <v>-0.10920000000000001</v>
+        <v>-0.20180000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45471</v>
+        <v>45477</v>
       </c>
       <c r="B85">
-        <v>-57.73</v>
+        <v>-113.62</v>
       </c>
       <c r="C85">
-        <v>-204.65</v>
+        <v>-391.1</v>
       </c>
       <c r="D85" s="2">
-        <v>-0.10100000000000001</v>
+        <v>-0.193</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45470</v>
+        <v>45476</v>
       </c>
       <c r="B86">
-        <v>55.65</v>
+        <v>-99.99</v>
       </c>
       <c r="C86">
-        <v>-146.91999999999999</v>
+        <v>-277.48</v>
       </c>
       <c r="D86" s="2">
-        <v>-7.2499999999999995E-2</v>
+        <v>-0.13689999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45469</v>
+        <v>45475</v>
       </c>
       <c r="B87">
-        <v>-19.100000000000001</v>
+        <v>-1.76</v>
       </c>
       <c r="C87">
-        <v>-202.57</v>
+        <v>-177.5</v>
       </c>
       <c r="D87" s="2">
-        <v>-9.9900000000000003E-2</v>
+        <v>-8.7599999999999997E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45468</v>
+        <v>45474</v>
       </c>
       <c r="B88">
-        <v>62.83</v>
+        <v>-10.69</v>
       </c>
       <c r="C88">
-        <v>-183.47</v>
+        <v>-175.73</v>
       </c>
       <c r="D88" s="2">
-        <v>-9.0499999999999997E-2</v>
+        <v>-8.6699999999999999E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45467</v>
+        <v>45473</v>
       </c>
       <c r="B89">
-        <v>-26.1</v>
+        <v>56.35</v>
       </c>
       <c r="C89">
-        <v>-246.3</v>
+        <v>-165.04</v>
       </c>
       <c r="D89" s="2">
-        <v>-0.1215</v>
+        <v>-8.14E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45466</v>
+        <v>45472</v>
       </c>
       <c r="B90">
-        <v>-55.25</v>
+        <v>-16.73</v>
       </c>
       <c r="C90">
-        <v>-220.21</v>
+        <v>-221.39</v>
       </c>
       <c r="D90" s="2">
-        <v>-0.1087</v>
+        <v>-0.10920000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45465</v>
+        <v>45471</v>
       </c>
       <c r="B91">
-        <v>17.88</v>
+        <v>-57.73</v>
       </c>
       <c r="C91">
-        <v>-164.96</v>
+        <v>-204.65</v>
       </c>
       <c r="D91" s="2">
-        <v>-8.14E-2</v>
+        <v>-0.10100000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="B92">
-        <v>0.91</v>
+        <v>55.65</v>
       </c>
       <c r="C92">
-        <v>-182.84</v>
+        <v>-146.91999999999999</v>
       </c>
       <c r="D92" s="2">
-        <v>-9.0200000000000002E-2</v>
+        <v>-7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45463</v>
+        <v>45469</v>
       </c>
       <c r="B93">
-        <v>-23.8</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="C93">
-        <v>-183.75</v>
+        <v>-202.57</v>
       </c>
       <c r="D93" s="2">
-        <v>-9.0700000000000003E-2</v>
+        <v>-9.9900000000000003E-2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45462</v>
+        <v>45468</v>
       </c>
       <c r="B94">
-        <v>-8.51</v>
+        <v>62.83</v>
       </c>
       <c r="C94">
-        <v>-159.94</v>
+        <v>-183.47</v>
       </c>
       <c r="D94" s="2">
-        <v>-7.8899999999999998E-2</v>
+        <v>-9.0499999999999997E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45461</v>
+        <v>45467</v>
       </c>
       <c r="B95">
-        <v>-71.55</v>
+        <v>-26.1</v>
       </c>
       <c r="C95">
-        <v>-151.44</v>
+        <v>-246.3</v>
       </c>
       <c r="D95" s="2">
-        <v>-7.4700000000000003E-2</v>
+        <v>-0.1215</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45460</v>
+        <v>45466</v>
       </c>
       <c r="B96">
-        <v>-74.959999999999994</v>
+        <v>-55.25</v>
       </c>
       <c r="C96">
-        <v>-79.89</v>
+        <v>-220.21</v>
       </c>
       <c r="D96" s="2">
-        <v>-3.9399999999999998E-2</v>
+        <v>-0.1087</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45459</v>
+        <v>45465</v>
       </c>
       <c r="B97">
-        <v>60.23</v>
+        <v>17.88</v>
       </c>
       <c r="C97">
-        <v>-4.93</v>
+        <v>-164.96</v>
       </c>
       <c r="D97" s="2">
-        <v>-2.3999999999999998E-3</v>
+        <v>-8.14E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45458</v>
+        <v>45464</v>
       </c>
       <c r="B98">
-        <v>33.15</v>
+        <v>0.91</v>
       </c>
       <c r="C98">
-        <v>-65.150000000000006</v>
+        <v>-182.84</v>
       </c>
       <c r="D98" s="2">
-        <v>-3.27E-2</v>
+        <v>-9.0200000000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="B99">
-        <v>-19.690000000000001</v>
+        <v>-23.8</v>
       </c>
       <c r="C99">
-        <v>-98.3</v>
+        <v>-183.75</v>
       </c>
       <c r="D99" s="2">
-        <v>-4.9399999999999999E-2</v>
+        <v>-9.0700000000000003E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>45456</v>
+        <v>45462</v>
       </c>
       <c r="B100">
-        <v>-83.71</v>
+        <v>-8.51</v>
       </c>
       <c r="C100">
-        <v>-78.61</v>
+        <v>-159.94</v>
       </c>
       <c r="D100" s="2">
-        <v>-3.95E-2</v>
+        <v>-7.8899999999999998E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45455</v>
+        <v>45461</v>
       </c>
       <c r="B101">
-        <v>49</v>
+        <v>-71.55</v>
       </c>
       <c r="C101">
-        <v>5.0999999999999996</v>
+        <v>-151.44</v>
       </c>
       <c r="D101" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>-7.4700000000000003E-2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45454</v>
+        <v>45460</v>
       </c>
       <c r="B102">
-        <v>-89.77</v>
+        <v>-74.959999999999994</v>
       </c>
       <c r="C102">
-        <v>-43.9</v>
+        <v>-79.89</v>
       </c>
       <c r="D102" s="2">
-        <v>-2.2100000000000002E-2</v>
+        <v>-3.9399999999999998E-2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45453</v>
+        <v>45459</v>
       </c>
       <c r="B103">
-        <v>-37.32</v>
+        <v>60.23</v>
       </c>
       <c r="C103">
-        <v>45.87</v>
+        <v>-4.93</v>
       </c>
       <c r="D103" s="2">
-        <v>2.3099999999999999E-2</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45452</v>
+        <v>45458</v>
       </c>
       <c r="B104">
-        <v>30.86</v>
+        <v>33.15</v>
       </c>
       <c r="C104">
-        <v>83.19</v>
+        <v>-65.150000000000006</v>
       </c>
       <c r="D104" s="2">
-        <v>4.19E-2</v>
+        <v>-3.27E-2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45451</v>
+        <v>45457</v>
       </c>
       <c r="B105">
-        <v>-43.91</v>
+        <v>-19.690000000000001</v>
       </c>
       <c r="C105">
-        <v>52.33</v>
+        <v>-98.3</v>
       </c>
       <c r="D105" s="2">
-        <v>2.64E-2</v>
+        <v>-4.9399999999999999E-2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45450</v>
+        <v>45456</v>
       </c>
       <c r="B106">
-        <v>-86.66</v>
+        <v>-83.71</v>
       </c>
       <c r="C106">
-        <v>96.23</v>
+        <v>-78.61</v>
       </c>
       <c r="D106" s="2">
-        <v>5.0999999999999997E-2</v>
+        <v>-3.95E-2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45449</v>
+        <v>45455</v>
       </c>
       <c r="B107">
-        <v>-30.78</v>
+        <v>49</v>
       </c>
       <c r="C107">
-        <v>182.89</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D107" s="2">
-        <v>9.69E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45448</v>
+        <v>45454</v>
       </c>
       <c r="B108">
-        <v>54.54</v>
+        <v>-89.77</v>
       </c>
       <c r="C108">
-        <v>213.67</v>
+        <v>-43.9</v>
       </c>
       <c r="D108" s="2">
-        <v>0.1132</v>
+        <v>-2.2100000000000002E-2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45447</v>
+        <v>45453</v>
       </c>
       <c r="B109">
-        <v>55.9</v>
+        <v>-37.32</v>
       </c>
       <c r="C109">
-        <v>159.13999999999999</v>
+        <v>45.87</v>
       </c>
       <c r="D109" s="2">
-        <v>8.43E-2</v>
+        <v>2.3099999999999999E-2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45446</v>
+        <v>45452</v>
       </c>
       <c r="B110">
-        <v>1.55</v>
+        <v>30.86</v>
       </c>
       <c r="C110">
-        <v>103.23</v>
+        <v>83.19</v>
       </c>
       <c r="D110" s="2">
-        <v>5.5199999999999999E-2</v>
+        <v>4.19E-2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45445</v>
+        <v>45451</v>
       </c>
       <c r="B111">
-        <v>-34.26</v>
+        <v>-43.91</v>
       </c>
       <c r="C111">
-        <v>101.68</v>
+        <v>52.33</v>
       </c>
       <c r="D111" s="2">
-        <v>5.4399999999999997E-2</v>
+        <v>2.64E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45444</v>
+        <v>45450</v>
       </c>
       <c r="B112">
-        <v>45.6</v>
+        <v>-86.66</v>
       </c>
       <c r="C112">
-        <v>135.94999999999999</v>
+        <v>96.23</v>
       </c>
       <c r="D112" s="2">
-        <v>7.2800000000000004E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45443</v>
+        <v>45449</v>
       </c>
       <c r="B113">
-        <v>12.48</v>
+        <v>-30.78</v>
       </c>
       <c r="C113">
-        <v>90.35</v>
+        <v>182.89</v>
       </c>
       <c r="D113" s="2">
-        <v>4.8300000000000003E-2</v>
+        <v>9.69E-2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45442</v>
+        <v>45448</v>
       </c>
       <c r="B114">
-        <v>35.869999999999997</v>
+        <v>54.54</v>
       </c>
       <c r="C114">
-        <v>77.87</v>
+        <v>213.67</v>
       </c>
       <c r="D114" s="2">
-        <v>4.1700000000000001E-2</v>
+        <v>0.1132</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45441</v>
+        <v>45447</v>
       </c>
       <c r="B115">
-        <v>-42.25</v>
+        <v>55.9</v>
       </c>
       <c r="C115">
-        <v>42</v>
+        <v>159.13999999999999</v>
       </c>
       <c r="D115" s="2">
-        <v>2.24E-2</v>
+        <v>8.43E-2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45440</v>
+        <v>45446</v>
       </c>
       <c r="B116">
-        <v>-25.7</v>
+        <v>1.55</v>
       </c>
       <c r="C116">
-        <v>84.25</v>
+        <v>103.23</v>
       </c>
       <c r="D116" s="2">
-        <v>4.5100000000000001E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="B117">
-        <v>11.79</v>
+        <v>-34.26</v>
       </c>
       <c r="C117">
-        <v>109.96</v>
+        <v>101.68</v>
       </c>
       <c r="D117" s="2">
-        <v>6.0400000000000002E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45438</v>
+        <v>45444</v>
       </c>
       <c r="B118">
-        <v>60.05</v>
+        <v>45.6</v>
       </c>
       <c r="C118">
-        <v>98.16</v>
+        <v>135.94999999999999</v>
       </c>
       <c r="D118" s="2">
-        <v>5.3900000000000003E-2</v>
+        <v>7.2800000000000004E-2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45437</v>
+        <v>45443</v>
       </c>
       <c r="B119">
-        <v>4.0999999999999996</v>
+        <v>12.48</v>
       </c>
       <c r="C119">
-        <v>38.119999999999997</v>
+        <v>90.35</v>
       </c>
       <c r="D119" s="2">
-        <v>2.86E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45436</v>
+        <v>45442</v>
       </c>
       <c r="B120">
-        <v>-4.0199999999999996</v>
+        <v>35.869999999999997</v>
       </c>
       <c r="C120">
-        <v>34.020000000000003</v>
+        <v>77.87</v>
       </c>
       <c r="D120" s="2">
-        <v>3.7400000000000003E-2</v>
+        <v>4.1700000000000001E-2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45435</v>
+        <v>45441</v>
       </c>
       <c r="B121">
-        <v>-8.23</v>
+        <v>-42.25</v>
       </c>
       <c r="C121">
-        <v>38.04</v>
+        <v>42</v>
       </c>
       <c r="D121" s="2">
-        <v>7.8200000000000006E-2</v>
+        <v>2.24E-2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45434</v>
+        <v>45440</v>
       </c>
       <c r="B122">
-        <v>-6.35</v>
+        <v>-25.7</v>
       </c>
       <c r="C122">
-        <v>46.27</v>
+        <v>84.25</v>
       </c>
       <c r="D122" s="2">
-        <v>9.5100000000000004E-2</v>
+        <v>4.5100000000000001E-2</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="B123">
-        <v>-6.45</v>
+        <v>11.79</v>
       </c>
       <c r="C123">
-        <v>52.62</v>
+        <v>109.96</v>
       </c>
       <c r="D123" s="2">
-        <v>0.1081</v>
+        <v>6.0400000000000002E-2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="B124">
-        <v>40.22</v>
+        <v>60.05</v>
       </c>
       <c r="C124">
-        <v>59.07</v>
+        <v>98.16</v>
       </c>
       <c r="D124" s="2">
-        <v>0.12139999999999999</v>
+        <v>5.3900000000000003E-2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45431</v>
+        <v>45437</v>
       </c>
       <c r="B125">
-        <v>-8.89</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C125">
-        <v>18.850000000000001</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="D125" s="2">
-        <v>3.8699999999999998E-2</v>
+        <v>2.86E-2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45430</v>
+        <v>45436</v>
       </c>
       <c r="B126">
-        <v>3.75</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="C126">
-        <v>27.74</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="D126" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45429</v>
+        <v>45435</v>
       </c>
       <c r="B127">
-        <v>15.17</v>
+        <v>-8.23</v>
       </c>
       <c r="C127">
-        <v>23.99</v>
+        <v>38.04</v>
       </c>
       <c r="D127" s="2">
-        <v>4.9299999999999997E-2</v>
+        <v>7.8200000000000006E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45428</v>
+        <v>45434</v>
       </c>
       <c r="B128">
-        <v>-5.33</v>
+        <v>-6.35</v>
       </c>
       <c r="C128">
-        <v>8.82</v>
+        <v>46.27</v>
       </c>
       <c r="D128" s="2">
-        <v>1.8100000000000002E-2</v>
+        <v>9.5100000000000004E-2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45427</v>
+        <v>45433</v>
       </c>
       <c r="B129">
-        <v>29.28</v>
+        <v>-6.45</v>
       </c>
       <c r="C129">
-        <v>14.15</v>
+        <v>52.62</v>
       </c>
       <c r="D129" s="2">
-        <v>2.9000000000000001E-2</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45426</v>
+        <v>45432</v>
       </c>
       <c r="B130">
-        <v>-15.94</v>
+        <v>40.22</v>
       </c>
       <c r="C130">
-        <v>-15.14</v>
+        <v>59.07</v>
       </c>
       <c r="D130" s="2">
-        <v>-3.1099999999999999E-2</v>
+        <v>0.12139999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>45425</v>
+        <v>45431</v>
       </c>
       <c r="B131">
-        <v>-1.48</v>
+        <v>-8.89</v>
       </c>
       <c r="C131">
-        <v>0.81</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="D131" s="2">
-        <v>1.8E-3</v>
+        <v>3.8699999999999998E-2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>45424</v>
+        <v>45430</v>
       </c>
       <c r="B132">
-        <v>1.47</v>
+        <v>3.75</v>
       </c>
       <c r="C132">
-        <v>2.29</v>
+        <v>27.74</v>
       </c>
       <c r="D132" s="2">
-        <v>6.6E-3</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>45423</v>
+        <v>45429</v>
       </c>
       <c r="B133">
-        <v>2.89</v>
+        <v>15.17</v>
       </c>
       <c r="C133">
-        <v>0.82</v>
+        <v>23.99</v>
       </c>
       <c r="D133" s="2">
-        <v>2.3E-3</v>
+        <v>4.9299999999999997E-2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>45422</v>
+        <v>45428</v>
       </c>
       <c r="B134">
-        <v>-3.56</v>
+        <v>-5.33</v>
       </c>
       <c r="C134">
-        <v>-2.0699999999999998</v>
+        <v>8.82</v>
       </c>
       <c r="D134" s="2">
-        <v>-5.8999999999999999E-3</v>
+        <v>1.8100000000000002E-2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>45421</v>
+        <v>45427</v>
       </c>
       <c r="B135">
-        <v>2.4300000000000002</v>
+        <v>29.28</v>
       </c>
       <c r="C135">
-        <v>1.49</v>
+        <v>14.15</v>
       </c>
       <c r="D135" s="2">
-        <v>1.0699999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>45420</v>
+        <v>45426</v>
       </c>
       <c r="B136">
-        <v>-1.62</v>
+        <v>-15.94</v>
       </c>
       <c r="C136">
-        <v>-0.94</v>
+        <v>-15.14</v>
       </c>
       <c r="D136" s="2">
-        <v>-1.34E-2</v>
+        <v>-3.1099999999999999E-2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B137">
+        <v>-1.48</v>
+      </c>
+      <c r="C137">
+        <v>0.81</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B138">
+        <v>1.47</v>
+      </c>
+      <c r="C138">
+        <v>2.29</v>
+      </c>
+      <c r="D138" s="2">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B139">
+        <v>2.89</v>
+      </c>
+      <c r="C139">
+        <v>0.82</v>
+      </c>
+      <c r="D139" s="2">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B140">
+        <v>-3.56</v>
+      </c>
+      <c r="C140">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="D140" s="2">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B141">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C141">
+        <v>1.49</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B142">
+        <v>-1.62</v>
+      </c>
+      <c r="C142">
+        <v>-0.94</v>
+      </c>
+      <c r="D142" s="2">
+        <v>-1.34E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>45419</v>
       </c>
-      <c r="B137">
+      <c r="B143">
         <v>-1.54</v>
       </c>
-      <c r="C137">
+      <c r="C143">
         <v>0.69</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D143" s="2">
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
